--- a/servers_query_automation/manual_servers_list.xlsx
+++ b/servers_query_automation/manual_servers_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{550D6E61-B23F-4066-A721-40CB9221C41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950CD0BE-CCCD-4193-8394-A646DB12B798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>ardom-as6</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>ardom-as7</t>
+  </si>
+  <si>
+    <t>Windows Server 2003</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Windows 7 Professional</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -429,39 +438,60 @@
     <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
